--- a/results/I2_N10_T30_C350_0_P5_res.xlsx
+++ b/results/I2_N10_T30_C350_0_P5_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1414.757905858271</v>
+        <v>659.6248911651033</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0150001049041748</v>
+        <v>0.01699995994567871</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29.17977540508634</v>
+        <v>31.85489116510334</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.828170918474254</v>
+        <v>2.580484450641003</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.216301371661726</v>
+        <v>2.580484450641003</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>955.1899999999971</v>
+        <v>566.4</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>430.9999999999999</v>
+        <v>61.37</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -755,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -788,7 +788,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -799,7 +799,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -810,7 +810,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -857,7 +857,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -901,7 +901,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -923,7 +923,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -945,7 +945,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -967,7 +967,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -1039,7 +1039,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7.38807534940317</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -1047,7 +1047,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>22.71621059566448</v>
+        <v>26.95051889297535</v>
       </c>
     </row>
     <row r="5">
@@ -1055,7 +1055,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>27.41391628932764</v>
+        <v>20.34885527085025</v>
       </c>
     </row>
     <row r="6">
@@ -1063,7 +1063,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>25.22705701268762</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -1071,7 +1071,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1079,7 +1079,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>27.06506101847739</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -1087,7 +1087,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>10</v>
+        <v>20.60033324079215</v>
       </c>
     </row>
     <row r="10">
@@ -1095,7 +1095,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>22.91480702620259</v>
+        <v>22.31224998648502</v>
       </c>
     </row>
     <row r="11">
@@ -1103,7 +1103,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.108520548428142</v>
+        <v>24.76592070603971</v>
       </c>
     </row>
     <row r="12">
@@ -1111,7 +1111,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>20</v>
+        <v>22.61192465059683</v>
       </c>
     </row>
     <row r="13">
@@ -1119,7 +1119,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>20</v>
+        <v>27.87444125446785</v>
       </c>
     </row>
     <row r="14">
@@ -1135,7 +1135,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>29.73264438895467</v>
+        <v>22.66758337047728</v>
       </c>
     </row>
   </sheetData>
@@ -1149,7 +1149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1181,7 +1181,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>12</v>
@@ -1195,7 +1195,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>12</v>
@@ -1209,7 +1209,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>12</v>
@@ -1223,7 +1223,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>12</v>
@@ -1237,7 +1237,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
         <v>12</v>
@@ -1246,76 +1246,6 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>8</v>
-      </c>
-      <c r="B7" t="n">
-        <v>4</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>8</v>
-      </c>
-      <c r="B8" t="n">
-        <v>4</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>4</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>8</v>
-      </c>
-      <c r="B11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1418,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>166.6300000000013</v>
+        <v>172.575000000001</v>
       </c>
     </row>
     <row r="8">
@@ -1429,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>166.4050000000013</v>
+        <v>188.5099999999991</v>
       </c>
     </row>
     <row r="9">
@@ -1440,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>167.5599999999999</v>
+        <v>180.9249999999998</v>
       </c>
     </row>
     <row r="10">
@@ -1451,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>170.9200000000013</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11">
@@ -1462,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>165.9149999999998</v>
+        <v>181.2149999999999</v>
       </c>
     </row>
     <row r="12">
@@ -1473,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>151.3550000000009</v>
+        <v>395.0750000000007</v>
       </c>
     </row>
     <row r="13">
@@ -1484,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>157</v>
+        <v>412.5900000000008</v>
       </c>
     </row>
     <row r="14">
@@ -1495,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>157.125000000001</v>
+        <v>405.3450000000008</v>
       </c>
     </row>
     <row r="15">
@@ -1506,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>153.080000000001</v>
+        <v>416.8600000000007</v>
       </c>
     </row>
     <row r="16">
@@ -1517,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>160.2350000000009</v>
+        <v>403.3300000000008</v>
       </c>
     </row>
     <row r="17">
@@ -1528,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>305.6550000000003</v>
+        <v>154.3</v>
       </c>
     </row>
     <row r="18">
@@ -1539,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>305.3450000000003</v>
+        <v>148.3449999999993</v>
       </c>
     </row>
     <row r="19">
@@ -1550,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>285.8300000000002</v>
+        <v>128.7049999999993</v>
       </c>
     </row>
     <row r="20">
@@ -1561,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>299.4050000000002</v>
+        <v>146.3249999999993</v>
       </c>
     </row>
     <row r="21">
@@ -1572,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>294.45</v>
+        <v>134.2149999999993</v>
       </c>
     </row>
     <row r="22">
@@ -1583,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>437.45</v>
+        <v>72.6299999999995</v>
       </c>
     </row>
     <row r="23">
@@ -1594,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>460.1100000000004</v>
+        <v>80.0549999999995</v>
       </c>
     </row>
     <row r="24">
@@ -1605,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>440.7049999999989</v>
+        <v>82.31999999999948</v>
       </c>
     </row>
     <row r="25">
@@ -1616,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>454.2600000000004</v>
+        <v>83.9549999999995</v>
       </c>
     </row>
     <row r="26">
@@ -1627,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>435.0699999999989</v>
+        <v>80.8149999999995</v>
       </c>
     </row>
     <row r="27">
@@ -1638,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>69.88000000000022</v>
+        <v>62.63000000000022</v>
       </c>
     </row>
     <row r="28">
@@ -1649,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>76.32000000000022</v>
+        <v>70.92000000000021</v>
       </c>
     </row>
     <row r="29">
@@ -1660,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>72.41000000000021</v>
+        <v>67.65500000000021</v>
       </c>
     </row>
     <row r="30">
@@ -1671,7 +1601,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>72.64500000000022</v>
+        <v>66.84500000000021</v>
       </c>
     </row>
     <row r="31">
@@ -1682,7 +1612,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>72.89000000000021</v>
+        <v>65.41000000000022</v>
       </c>
     </row>
     <row r="32">
@@ -1693,7 +1623,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>258.7350000000008</v>
+        <v>107.3799999999999</v>
       </c>
     </row>
     <row r="33">
@@ -1704,7 +1634,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>269.2400000000008</v>
+        <v>112.2399999999999</v>
       </c>
     </row>
     <row r="34">
@@ -1715,7 +1645,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>250.9150000000008</v>
+        <v>93.78999999999985</v>
       </c>
     </row>
     <row r="35">
@@ -1726,7 +1656,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>261.9150000000008</v>
+        <v>108.8349999999998</v>
       </c>
     </row>
     <row r="36">
@@ -1737,7 +1667,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>255.0150000000008</v>
+        <v>94.77999999999986</v>
       </c>
     </row>
     <row r="37">
@@ -1748,7 +1678,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>238.9450000000007</v>
+        <v>255.65</v>
       </c>
     </row>
     <row r="38">
@@ -1759,7 +1689,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>242.2150000000021</v>
+        <v>273.23</v>
       </c>
     </row>
     <row r="39">
@@ -1770,7 +1700,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>236.8350000000007</v>
+        <v>258.9</v>
       </c>
     </row>
     <row r="40">
@@ -1781,7 +1711,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>245.8800000000022</v>
+        <v>275.77</v>
       </c>
     </row>
     <row r="41">
@@ -1792,7 +1722,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>242.4100000000007</v>
+        <v>263.0700000000007</v>
       </c>
     </row>
     <row r="42">
@@ -1803,7 +1733,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>364.8199999999994</v>
+        <v>140.5549999999989</v>
       </c>
     </row>
     <row r="43">
@@ -1814,7 +1744,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>380.0550000000009</v>
+        <v>159.2149999999989</v>
       </c>
     </row>
     <row r="44">
@@ -1825,7 +1755,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>358.3849999999994</v>
+        <v>142.1399999999989</v>
       </c>
     </row>
     <row r="45">
@@ -1836,7 +1766,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>370.3050000000009</v>
+        <v>147.7249999999989</v>
       </c>
     </row>
     <row r="46">
@@ -1847,7 +1777,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>354.2549999999994</v>
+        <v>139.7449999999989</v>
       </c>
     </row>
     <row r="47">
@@ -1858,7 +1788,7 @@
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>69.46000000000051</v>
+        <v>226.0399999999994</v>
       </c>
     </row>
     <row r="48">
@@ -1869,7 +1799,7 @@
         <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>67.1350000000005</v>
+        <v>247.1799999999994</v>
       </c>
     </row>
     <row r="49">
@@ -1880,7 +1810,7 @@
         <v>3</v>
       </c>
       <c r="C49" t="n">
-        <v>67.4450000000005</v>
+        <v>221.8549999999994</v>
       </c>
     </row>
     <row r="50">
@@ -1891,7 +1821,7 @@
         <v>4</v>
       </c>
       <c r="C50" t="n">
-        <v>71.88000000000051</v>
+        <v>238.4549999999994</v>
       </c>
     </row>
     <row r="51">
@@ -1902,7 +1832,7 @@
         <v>5</v>
       </c>
       <c r="C51" t="n">
-        <v>67.93500000000051</v>
+        <v>224.4749999999994</v>
       </c>
     </row>
     <row r="52">
@@ -1913,7 +1843,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>296.895</v>
+        <v>313.6</v>
       </c>
     </row>
     <row r="53">
@@ -1924,7 +1854,7 @@
         <v>2</v>
       </c>
       <c r="C53" t="n">
-        <v>300.8950000000014</v>
+        <v>331.91</v>
       </c>
     </row>
     <row r="54">
@@ -1935,7 +1865,7 @@
         <v>3</v>
       </c>
       <c r="C54" t="n">
-        <v>298.565</v>
+        <v>320.63</v>
       </c>
     </row>
     <row r="55">
@@ -1946,7 +1876,7 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>306.5350000000015</v>
+        <v>336.425</v>
       </c>
     </row>
     <row r="56">
@@ -1957,7 +1887,7 @@
         <v>5</v>
       </c>
       <c r="C56" t="n">
-        <v>295.325</v>
+        <v>315.985</v>
       </c>
     </row>
     <row r="57">
@@ -1968,7 +1898,7 @@
         <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>226.0399999999994</v>
       </c>
     </row>
     <row r="58">
@@ -1979,7 +1909,7 @@
         <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>247.1799999999994</v>
       </c>
     </row>
     <row r="59">
@@ -1990,7 +1920,7 @@
         <v>3</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>221.8549999999994</v>
       </c>
     </row>
     <row r="60">
@@ -2001,7 +1931,7 @@
         <v>4</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>238.4549999999994</v>
       </c>
     </row>
     <row r="61">
@@ -2012,7 +1942,7 @@
         <v>5</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>224.4749999999994</v>
       </c>
     </row>
     <row r="62">
@@ -2023,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>437.45</v>
+        <v>395.0750000000007</v>
       </c>
     </row>
     <row r="63">
@@ -2034,7 +1964,7 @@
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>460.1100000000004</v>
+        <v>412.5900000000008</v>
       </c>
     </row>
     <row r="64">
@@ -2045,7 +1975,7 @@
         <v>3</v>
       </c>
       <c r="C64" t="n">
-        <v>440.7049999999989</v>
+        <v>405.3450000000008</v>
       </c>
     </row>
     <row r="65">
@@ -2056,7 +1986,7 @@
         <v>4</v>
       </c>
       <c r="C65" t="n">
-        <v>454.2600000000004</v>
+        <v>416.8600000000007</v>
       </c>
     </row>
     <row r="66">
@@ -2067,7 +1997,7 @@
         <v>5</v>
       </c>
       <c r="C66" t="n">
-        <v>435.0699999999989</v>
+        <v>403.3300000000008</v>
       </c>
     </row>
     <row r="67">
@@ -2078,7 +2008,7 @@
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>305.6550000000003</v>
+        <v>154.3</v>
       </c>
     </row>
     <row r="68">
@@ -2089,7 +2019,7 @@
         <v>2</v>
       </c>
       <c r="C68" t="n">
-        <v>305.3450000000003</v>
+        <v>148.3449999999993</v>
       </c>
     </row>
     <row r="69">
@@ -2100,7 +2030,7 @@
         <v>3</v>
       </c>
       <c r="C69" t="n">
-        <v>285.8300000000002</v>
+        <v>128.7049999999993</v>
       </c>
     </row>
     <row r="70">
@@ -2111,7 +2041,7 @@
         <v>4</v>
       </c>
       <c r="C70" t="n">
-        <v>299.4050000000002</v>
+        <v>146.3249999999993</v>
       </c>
     </row>
     <row r="71">
@@ -2122,7 +2052,7 @@
         <v>5</v>
       </c>
       <c r="C71" t="n">
-        <v>294.45</v>
+        <v>134.2149999999993</v>
       </c>
     </row>
   </sheetData>
@@ -2224,7 +2154,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>87.45</v>
+        <v>45.075</v>
       </c>
     </row>
     <row r="8">
@@ -2235,7 +2165,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>110.1100000000004</v>
+        <v>62.59</v>
       </c>
     </row>
     <row r="9">
@@ -2246,7 +2176,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>90.7049999999989</v>
+        <v>55.345</v>
       </c>
     </row>
     <row r="10">
@@ -2257,7 +2187,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>104.2600000000004</v>
+        <v>66.86</v>
       </c>
     </row>
     <row r="11">
@@ -2268,7 +2198,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>85.06999999999886</v>
+        <v>53.33</v>
       </c>
     </row>
     <row r="12">
@@ -2370,7 +2300,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>12.775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2381,7 +2311,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>18.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2392,7 +2322,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>13.155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2403,7 +2333,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>20.115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2414,7 +2344,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>17.825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2590,7 +2520,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="23">
@@ -2601,7 +2531,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="24">
@@ -2612,7 +2542,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>4.755</v>
       </c>
     </row>
     <row r="25">
@@ -2623,7 +2553,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="26">
@@ -2634,7 +2564,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>7.48</v>
       </c>
     </row>
     <row r="27">
@@ -2700,7 +2630,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>10.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -2711,7 +2641,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>8.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -2722,7 +2652,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>8.699999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -2733,7 +2663,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>14.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -2744,7 +2674,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>5.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -2810,7 +2740,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>16.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -2821,7 +2751,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>20.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -2832,7 +2762,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>12.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -2843,7 +2773,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>18.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2854,7 +2784,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>16.795</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2923,7 +2853,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2950,7 +2880,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2961,7 +2891,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2972,7 +2902,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2983,7 +2913,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2994,67 +2924,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>8</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>8</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>8</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
